--- a/public/DataAlumni/coba.xlsx
+++ b/public/DataAlumni/coba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NFBS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9401944-CD8C-467A-BF6C-0801E2F06A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4E2BC9-C18C-4926-BB13-7AD1D77833BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1230" windowWidth="15375" windowHeight="7785" xr2:uid="{F2B4131E-447A-4C78-A328-C4EEBA170E73}"/>
+    <workbookView xWindow="1980" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{F2B4131E-447A-4C78-A328-C4EEBA170E73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>ahmad</t>
   </si>
@@ -69,10 +69,10 @@
     <t>Negeri</t>
   </si>
   <si>
-    <t>Dalam Negeri</t>
-  </si>
-  <si>
     <t>Tehnik Sipil</t>
+  </si>
+  <si>
+    <t>Swasta</t>
   </si>
 </sst>
 </file>
@@ -424,18 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B3AC77-CC33-40F3-924A-D32DB1B83F46}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -449,16 +446,13 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1">
+      <c r="F1">
         <v>2025</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -472,16 +466,13 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -495,16 +486,13 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="F3">
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -518,16 +506,13 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="F4">
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -535,10 +520,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
